--- a/Наука.xlsx
+++ b/Наука.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_C++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_C++\Landoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD907D35-82FC-4591-85BB-A195AE5479C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E53A57-3415-4BF1-9362-6EA4D9474BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{994B3004-F955-423E-850A-68F90FADD3CF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>Земледелие</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Средревековье</t>
   </si>
   <si>
-    <t>Обработка Железа, Математика</t>
-  </si>
-  <si>
     <t>Металлоконструкции</t>
   </si>
   <si>
@@ -252,10 +249,19 @@
     <t>Виноделие</t>
   </si>
   <si>
-    <t>Обработка бронзы, Колесо, Виноделие</t>
-  </si>
-  <si>
     <t>Бордель, Бани</t>
+  </si>
+  <si>
+    <t>Календарь</t>
+  </si>
+  <si>
+    <t>Обработка бронзы, Виноделие</t>
+  </si>
+  <si>
+    <t>Обработка Железа, Гильдии</t>
+  </si>
+  <si>
+    <t>Верховая езда, Обработка Железа</t>
   </si>
 </sst>
 </file>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFC13E-C676-46A9-9E95-2052BF93D173}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -652,11 +658,12 @@
     <col min="9" max="9" width="11.7265625" customWidth="1"/>
     <col min="10" max="10" width="34.36328125" customWidth="1"/>
     <col min="11" max="11" width="15.7265625" customWidth="1"/>
-    <col min="12" max="12" width="28.1796875" customWidth="1"/>
+    <col min="12" max="12" width="30.90625" customWidth="1"/>
     <col min="14" max="14" width="34.7265625" customWidth="1"/>
+    <col min="16" max="16" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -667,35 +674,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:16">
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="L2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="L3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="2"/>
       <c r="F4" t="s">
         <v>0</v>
@@ -703,27 +704,34 @@
       <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="2"/>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:16">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="B8" s="2"/>
       <c r="F8" t="s">
         <v>0</v>
@@ -732,7 +740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -749,15 +757,15 @@
         <v>18</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -769,16 +777,16 @@
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>43</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -789,58 +797,58 @@
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="P12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="P14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="F15" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="F16" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
+      <c r="N16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -851,19 +859,19 @@
         <v>22</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
+        <v>46</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -871,22 +879,22 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
+        <v>47</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -897,88 +905,95 @@
         <v>22</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
+        <v>48</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
       <c r="H22" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
-      <c r="H23" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:16">
       <c r="H24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14">
+      <c r="P24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="L26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
       <c r="F27" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:16">
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="H28" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:16">
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>52</v>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Наука.xlsx
+++ b/Наука.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_C++\Landoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E53A57-3415-4BF1-9362-6EA4D9474BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1647AE82-1ACC-4EDF-AA3C-32ABEEEBCF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{994B3004-F955-423E-850A-68F90FADD3CF}"/>
+    <workbookView xWindow="8870" yWindow="0" windowWidth="19430" windowHeight="15150" xr2:uid="{994B3004-F955-423E-850A-68F90FADD3CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>Рынок</t>
   </si>
   <si>
-    <t>Деньги, Обработка бронзы</t>
-  </si>
-  <si>
     <t>Драма и поэзия</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>Крутые мечники</t>
   </si>
   <si>
-    <t>Храм 2, Библиотека</t>
-  </si>
-  <si>
     <t>Институт, Библиотека 2</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
     <t>Рынок 2, Банк</t>
   </si>
   <si>
-    <t>Храм, Арена</t>
-  </si>
-  <si>
     <t>Виноделие</t>
   </si>
   <si>
@@ -255,13 +246,22 @@
     <t>Календарь</t>
   </si>
   <si>
-    <t>Обработка бронзы, Виноделие</t>
-  </si>
-  <si>
     <t>Обработка Железа, Гильдии</t>
   </si>
   <si>
     <t>Верховая езда, Обработка Железа</t>
+  </si>
+  <si>
+    <t>Cвятилище, Арена</t>
+  </si>
+  <si>
+    <t>Храм , Библиотека</t>
+  </si>
+  <si>
+    <t>Драма и поэзия, Обработка Железа</t>
+  </si>
+  <si>
+    <t>Обработка бронзы, Виноделие, Стрельба из лука</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFC13E-C676-46A9-9E95-2052BF93D173}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -656,7 +656,7 @@
     <col min="7" max="7" width="11.90625" customWidth="1"/>
     <col min="8" max="8" width="32.08984375" customWidth="1"/>
     <col min="9" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="34.36328125" customWidth="1"/>
+    <col min="10" max="10" width="43.453125" customWidth="1"/>
     <col min="11" max="11" width="15.7265625" customWidth="1"/>
     <col min="12" max="12" width="30.90625" customWidth="1"/>
     <col min="14" max="14" width="34.7265625" customWidth="1"/>
@@ -671,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -682,7 +682,7 @@
         <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -693,7 +693,7 @@
         <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -716,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -728,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -757,15 +757,15 @@
         <v>18</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -777,13 +777,13 @@
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -797,55 +797,55 @@
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="F16" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>34</v>
+      <c r="L16" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="N16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -859,16 +859,16 @@
         <v>22</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:16">
@@ -879,19 +879,19 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -905,13 +905,13 @@
         <v>22</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:16">
@@ -919,13 +919,13 @@
         <v>30</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:16">
@@ -933,13 +933,13 @@
         <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" t="s">
         <v>63</v>
-      </c>
-      <c r="P23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -947,18 +947,18 @@
         <v>22</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:16">
       <c r="L26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -969,7 +969,7 @@
         <v>26</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -980,7 +980,7 @@
         <v>27</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:16">
@@ -993,7 +993,7 @@
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
